--- a/spliced/falling/2023-03-25_17-58-47/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.08491026610136029</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0247611999511718</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.972880363464355</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7428256273269653</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0294742472469806</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0413861200213432</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0959058403968811</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-47/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.325653553009033</v>
+        <v>-2.246021509170532</v>
       </c>
       <c r="D2" t="n">
-        <v>2.315335750579834</v>
+        <v>2.530338048934937</v>
       </c>
       <c r="E2" t="n">
-        <v>2.114412546157837</v>
+        <v>1.034301340579987</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09758572280406951</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0615446716547012</v>
+        <v>0.1702786833047866</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08017606288194649</v>
+        <v>-0.0888808965682983</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.993824815750122</v>
+        <v>-2.397771739959717</v>
       </c>
       <c r="D3" t="n">
-        <v>2.412744569778442</v>
+        <v>2.518170547485352</v>
       </c>
       <c r="E3" t="n">
-        <v>2.562826609611511</v>
+        <v>0.915059447288513</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07956519722938531</v>
+        <v>-0.047036625444889</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1488984078168869</v>
+        <v>0.0433714315295219</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1036943718791008</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.099692916870118</v>
+        <v>-2.324807786941528</v>
       </c>
       <c r="D4" t="n">
-        <v>2.386767387390137</v>
+        <v>2.547794580459595</v>
       </c>
       <c r="E4" t="n">
-        <v>2.678394412994385</v>
+        <v>0.7709671020507812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0178678091615438</v>
+        <v>0.0061086523346602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0836885422468185</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0500909499824047</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.539734458923342</v>
+        <v>-2.206723213195801</v>
       </c>
       <c r="D5" t="n">
-        <v>2.251132488250732</v>
+        <v>2.590793609619141</v>
       </c>
       <c r="E5" t="n">
-        <v>2.302260518074033</v>
+        <v>0.8417039632797245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0439822971820831</v>
+        <v>0.0401643887162208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.08017606288194649</v>
+        <v>0.0001527163112768</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.798751735687256</v>
+        <v>-2.01174955368042</v>
       </c>
       <c r="D6" t="n">
-        <v>1.147012233734121</v>
+        <v>2.60823769569397</v>
       </c>
       <c r="E6" t="n">
-        <v>2.277631902694703</v>
+        <v>1.090024280548096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1090394482016563</v>
+        <v>0.0146607663482427</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9398161768913268</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2848159074783325</v>
+        <v>0.0464257597923278</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.073579788208008</v>
+        <v>-2.355203628540039</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.642811775207524</v>
+        <v>2.568441867828369</v>
       </c>
       <c r="E7" t="n">
-        <v>3.430169939994816</v>
+        <v>0.8857938051223755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0601702257990837</v>
+        <v>-0.0455094613134861</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5073235630989075</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0161879286170005</v>
+        <v>0.0467311926186084</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.291536808013922</v>
+        <v>-2.247145366668701</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.572477817535406</v>
+        <v>2.438617801666259</v>
       </c>
       <c r="E8" t="n">
-        <v>5.254911422729497</v>
+        <v>0.8904013574123383</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3770565688610077</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2907718420028686</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.639104127883911</v>
+        <v>0.0065668015740811</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.406326150894171</v>
+        <v>-2.348918724060059</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.793146014213552</v>
+        <v>2.538596057891846</v>
       </c>
       <c r="E9" t="n">
-        <v>5.593617057800286</v>
+        <v>1.142265951633454</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.575268745422363</v>
+        <v>0.0096211275085806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9181304574012756</v>
+        <v>-0.0128281703218817</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.197726726531982</v>
+        <v>0.0253509078174829</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9536849975587334</v>
+        <v>-2.434140348434448</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1826061248779267</v>
+        <v>2.598772668838501</v>
       </c>
       <c r="E10" t="n">
-        <v>2.677957320213301</v>
+        <v>1.196871364116669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5009095072746277</v>
+        <v>0.024892758578062</v>
       </c>
       <c r="G10" t="n">
-        <v>3.925878286361694</v>
+        <v>-0.0320704244077205</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5390886068344116</v>
+        <v>0.0131336031481623</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.34990999698625</v>
+        <v>-2.469630908966064</v>
       </c>
       <c r="D11" t="n">
-        <v>0.490568253397939</v>
+        <v>2.608709144592285</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6328019738197053</v>
+        <v>0.9890874266624448</v>
       </c>
       <c r="F11" t="n">
-        <v>2.016924381256104</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4338670372962951</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.551736831665039</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.651923894882202</v>
+        <v>-2.473813533782959</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1518822014331817</v>
+        <v>2.590450048446655</v>
       </c>
       <c r="E12" t="n">
-        <v>6.22404146194458</v>
+        <v>0.9850140511989596</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.234558701515198</v>
+        <v>-0.028557950630784</v>
       </c>
       <c r="G12" t="n">
-        <v>2.077705383300781</v>
+        <v>-0.0305432621389627</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.801913321018219</v>
+        <v>-0.0201585534960031</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4.871152138710036</v>
+        <v>-2.382417774200439</v>
       </c>
       <c r="D13" t="n">
-        <v>1.64225258529187</v>
+        <v>2.536800479888916</v>
       </c>
       <c r="E13" t="n">
-        <v>4.566823816299431</v>
+        <v>1.009570789337157</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8013024926185608</v>
+        <v>-0.0192422550171613</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.52746856212616</v>
+        <v>0.0343611687421798</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2012801021337509</v>
+        <v>-0.0004581489483825</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6.492228031158454</v>
+        <v>-2.251543283462525</v>
       </c>
       <c r="D14" t="n">
-        <v>3.64010591506959</v>
+        <v>2.502760457992554</v>
       </c>
       <c r="E14" t="n">
-        <v>1.834508514404282</v>
+        <v>0.9712224066257489</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7525860071182251</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.772551059722901</v>
+        <v>0.0630718395113945</v>
       </c>
       <c r="H14" t="n">
-        <v>1.262963891029358</v>
+        <v>-0.0142026171088218</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.539169025421104</v>
+        <v>-2.286794948577881</v>
       </c>
       <c r="D15" t="n">
-        <v>1.307969903945902</v>
+        <v>2.536056137084961</v>
       </c>
       <c r="E15" t="n">
-        <v>4.571132516860986</v>
+        <v>1.293239164352417</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4665483236312866</v>
+        <v>0.0442877300083637</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3252857327461242</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3428481221199035</v>
+        <v>-0.001527163083665</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.01956577301027</v>
+        <v>-2.406369590759277</v>
       </c>
       <c r="D16" t="n">
-        <v>2.104999399185199</v>
+        <v>2.443658208847046</v>
       </c>
       <c r="E16" t="n">
-        <v>2.938691687583895</v>
+        <v>1.501735496520997</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1076650023460388</v>
+        <v>-0.0262672062963247</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3216205537319183</v>
+        <v>-0.027030786499381</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.0058032199740409</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.502372264862058</v>
+        <v>-2.325653553009033</v>
       </c>
       <c r="D17" t="n">
-        <v>3.613384723663331</v>
+        <v>2.315335750579834</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4577605649828894</v>
+        <v>2.114412546157837</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0665843114256858</v>
+        <v>-0.09758572280406951</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.313832014799118</v>
+        <v>0.0615446716547012</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.247553139925003</v>
+        <v>-0.08017606288194649</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.5864234924316392</v>
+        <v>-1.993824815750122</v>
       </c>
       <c r="D18" t="n">
-        <v>3.672312498092651</v>
+        <v>2.412744569778442</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3443028122186679</v>
+        <v>2.562826609611511</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08277224004268641</v>
+        <v>-0.07956519722938531</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1805106848478317</v>
+        <v>0.1488984078168869</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0117591563612222</v>
+        <v>-0.1036943718791008</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3011162757873542</v>
+        <v>-2.099692916870118</v>
       </c>
       <c r="D19" t="n">
-        <v>3.594357490539552</v>
+        <v>2.386767387390137</v>
       </c>
       <c r="E19" t="n">
-        <v>0.770095187425613</v>
+        <v>2.678394412994385</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0708603709936142</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0029016099870204</v>
+        <v>0.0836885422468185</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1099557429552078</v>
+        <v>0.0500909499824047</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.450049781799316</v>
+        <v>-2.539734458923342</v>
       </c>
       <c r="D20" t="n">
-        <v>3.681126499176023</v>
+        <v>2.251132488250732</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6856440544128422</v>
+        <v>2.302260518074033</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0120645882561802</v>
+        <v>0.0439822971820831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0180205255746841</v>
+        <v>-0.08017606288194649</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.319336414337157</v>
+        <v>-2.798751735687256</v>
       </c>
       <c r="D21" t="n">
-        <v>3.02371916770935</v>
+        <v>1.147012233734121</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7831352591514585</v>
+        <v>2.277631902694703</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06536258012056349</v>
+        <v>0.1090394482016563</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1009454801678657</v>
+        <v>0.9398161768913268</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08491026610136029</v>
+        <v>-0.2848159074783325</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.073579788208008</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.642811775207524</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.430169939994816</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0601702257990837</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5073235630989075</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0161879286170005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.291536808013922</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.572477817535406</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.254911422729497</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.3770565688610077</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2907718420028686</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.639104127883911</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.406326150894171</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.793146014213552</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.593617057800286</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.575268745422363</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9181304574012756</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.197726726531982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9536849975587334</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.1826061248779267</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.677957320213301</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5009095072746277</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.925878286361694</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5390886068344116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>32.34990999698625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.490568253397939</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.6328019738197053</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.016924381256104</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.4338670372962951</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.551736831665039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.651923894882202</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1518822014331817</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.22404146194458</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.234558701515198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.077705383300781</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.801913321018219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.871152138710036</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.64225258529187</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.566823816299431</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.8013024926185608</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.52746856212616</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.2012801021337509</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-6.492228031158454</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.64010591506959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.834508514404282</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.7525860071182251</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.772551059722901</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.262963891029358</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.539169025421104</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.307969903945902</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.571132516860986</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.4665483236312866</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3252857327461242</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3428481221199035</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.01956577301027</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.104999399185199</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.938691687583895</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1076650023460388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3216205537319183</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.2797762751579284</v>
       </c>
     </row>
   </sheetData>
